--- a/Hardware/Milestones-BOM-Template.xlsx
+++ b/Hardware/Milestones-BOM-Template.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orlandohoilett/Documents/Milestones/Git/Tasks-Tutorials-Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\Kevin\Purdue\Milestones\BlinkyCircuit\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F0319-899B-F545-ABC0-B856698FB7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D0FF2F-91A4-4498-B53A-6E818B564F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -602,7 +610,7 @@
     <t>RMCF0603FT10K0CT-ND</t>
   </si>
   <si>
-    <t>Design Name -- Revision Code / Designer or Organization Name</t>
+    <t>Blinky Circuit -- Revision Code / Designer or Organization Name</t>
   </si>
 </sst>
 </file>
@@ -1317,27 +1325,27 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" style="1"/>
+    <col min="12" max="12" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>57</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>1.1271</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>1</f>
         <v>1</v>
@@ -1463,7 +1471,7 @@
         <v>0.1391</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1512,7 +1520,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1559,7 +1567,7 @@
         <v>0.3982</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1608,7 +1616,7 @@
         <v>9.0899999999999995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1657,7 +1665,7 @@
         <v>2.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
